--- a/output/2021.xlsx
+++ b/output/2021.xlsx
@@ -1191,14 +1191,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>威海银行</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4003.4057092893</v>
+        <v>3045.2081525351</v>
       </c>
       <c r="I23" t="n">
-        <v>68.44619561046569</v>
+        <v>69.19205752169709</v>
       </c>
     </row>
     <row r="24">
@@ -1224,14 +1224,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>威海银行</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4003.4057092893</v>
+        <v>3045.2081525351</v>
       </c>
       <c r="I24" t="n">
-        <v>68.44619561046569</v>
+        <v>69.19205752169709</v>
       </c>
     </row>
     <row r="25">
@@ -1488,14 +1488,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I32" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="33">
@@ -1554,14 +1554,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>长安银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3781.8064458834</v>
+        <v>3458.63917</v>
       </c>
       <c r="I34" t="n">
-        <v>69.25951860287719</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="35">
@@ -1653,14 +1653,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I37" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="38">
@@ -1785,14 +1785,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>贵州银行</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4530.29020092</v>
+        <v>5038.80166</v>
       </c>
       <c r="I41" t="n">
-        <v>69.2813048455872</v>
+        <v>69.3658151270344</v>
       </c>
     </row>
     <row r="42">
@@ -3369,14 +3369,14 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>常熟农村商业银行</t>
+          <t>广东南海农村商业银行</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>2465.82821</v>
+        <v>2485.7247</v>
       </c>
       <c r="I89" t="n">
-        <v>68.8306495403348</v>
+        <v>69.468550452058</v>
       </c>
     </row>
     <row r="90">
@@ -3600,14 +3600,14 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>长安银行</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>4627.1001912686</v>
+        <v>3781.8064458834</v>
       </c>
       <c r="I96" t="n">
-        <v>68.503554899091</v>
+        <v>69.25951860287719</v>
       </c>
     </row>
     <row r="97">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>赣州银行</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>5085.59808</v>
+        <v>2445.9463400456</v>
       </c>
       <c r="I119" t="n">
-        <v>69.7366709204194</v>
+        <v>69.47787648355229</v>
       </c>
     </row>
     <row r="120">
@@ -4743,14 +4743,14 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>广州银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>7200.9652558686</v>
+        <v>6189.5362</v>
       </c>
       <c r="I131" t="n">
-        <v>71.1656836998804</v>
+        <v>71.8853665893421</v>
       </c>
     </row>
     <row r="132">
@@ -4875,14 +4875,14 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>广州银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>7200.9652558686</v>
+        <v>6189.5362</v>
       </c>
       <c r="I135" t="n">
-        <v>71.1656836998804</v>
+        <v>71.8853665893421</v>
       </c>
     </row>
     <row r="136">
@@ -5469,14 +5469,14 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>厦门国际银行</t>
+          <t>浙江泰隆商业银行</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>10071.68916095</v>
+        <v>3125.5326306366</v>
       </c>
       <c r="I153" t="n">
-        <v>71.6384103799876</v>
+        <v>70.397581867795</v>
       </c>
     </row>
     <row r="154">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>26188.7426</v>
+        <v>15827.07598</v>
       </c>
       <c r="I156" t="n">
-        <v>78.0609651928749</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="157">
@@ -5700,14 +5700,14 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>26188.7426</v>
+        <v>15827.07598</v>
       </c>
       <c r="I160" t="n">
-        <v>78.0609651928749</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="161">
@@ -6195,14 +6195,14 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>赣州银行</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>5085.59808</v>
+        <v>2445.9463400456</v>
       </c>
       <c r="I175" t="n">
-        <v>69.7366709204194</v>
+        <v>69.47787648355229</v>
       </c>
     </row>
     <row r="176">
@@ -6261,14 +6261,14 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>青岛农村商业银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>4304.3809</v>
+        <v>3585.04602</v>
       </c>
       <c r="I177" t="n">
-        <v>68.8857294363752</v>
+        <v>68.109161932397</v>
       </c>
     </row>
     <row r="178">
@@ -6360,14 +6360,14 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>广东南海农村商业银行</t>
+          <t>常熟农村商业银行</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>2485.7247</v>
+        <v>2465.82821</v>
       </c>
       <c r="I180" t="n">
-        <v>69.468550452058</v>
+        <v>68.8306495403348</v>
       </c>
     </row>
     <row r="181">
@@ -6426,14 +6426,14 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>苏州银行</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>3585.04602</v>
+        <v>4530.29020092</v>
       </c>
       <c r="I182" t="n">
-        <v>68.109161932397</v>
+        <v>69.2813048455872</v>
       </c>
     </row>
     <row r="183">
@@ -6525,14 +6525,14 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>11616.28626</v>
+        <v>6086.86846</v>
       </c>
       <c r="I185" t="n">
-        <v>71.12456881390059</v>
+        <v>71.2247535597206</v>
       </c>
     </row>
     <row r="186">
@@ -6591,14 +6591,14 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>5933.61093</v>
+        <v>4883.3472938066</v>
       </c>
       <c r="I187" t="n">
-        <v>70.0774777244287</v>
+        <v>69.7133394312531</v>
       </c>
     </row>
     <row r="188">
@@ -6624,14 +6624,14 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>沧州银行</t>
+          <t>乐山市商业银行</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>1833.3447168881</v>
+        <v>1454.3715600894</v>
       </c>
       <c r="I188" t="n">
-        <v>65.56065512443421</v>
+        <v>65.55698402608</v>
       </c>
     </row>
     <row r="189">
@@ -6657,14 +6657,14 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>江苏姜堰农村商业银行</t>
+          <t>亳州药都农村商业银行</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>414.0717411157</v>
+        <v>581.8025018475</v>
       </c>
       <c r="I189" t="n">
-        <v>62.2720250482308</v>
+        <v>62.6280573347419</v>
       </c>
     </row>
     <row r="190">
@@ -6723,14 +6723,14 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>5933.61093</v>
+        <v>4883.3472938066</v>
       </c>
       <c r="I191" t="n">
-        <v>70.0774777244287</v>
+        <v>69.7133394312531</v>
       </c>
     </row>
     <row r="192">
@@ -6756,14 +6756,14 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>11616.28626</v>
+        <v>6086.86846</v>
       </c>
       <c r="I192" t="n">
-        <v>71.12456881390059</v>
+        <v>71.2247535597206</v>
       </c>
     </row>
     <row r="193">
@@ -6789,14 +6789,14 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>沧州银行</t>
+          <t>乐山市商业银行</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>1833.3447168881</v>
+        <v>1454.3715600894</v>
       </c>
       <c r="I193" t="n">
-        <v>65.56065512443421</v>
+        <v>65.55698402608</v>
       </c>
     </row>
     <row r="194">
@@ -7053,14 +7053,14 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>昆仑银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>3552.3445804938</v>
+        <v>3247.9682605582</v>
       </c>
       <c r="I201" t="n">
-        <v>69.2957748269591</v>
+        <v>69.03393177693211</v>
       </c>
     </row>
     <row r="202">
@@ -7185,14 +7185,14 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>长安银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>3781.8064458834</v>
+        <v>3458.63917</v>
       </c>
       <c r="I205" t="n">
-        <v>69.25951860287719</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="206">
@@ -7218,14 +7218,14 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>7677.64951</v>
+        <v>6181.71267</v>
       </c>
       <c r="I206" t="n">
-        <v>71.2011733664349</v>
+        <v>72.0740741704179</v>
       </c>
     </row>
     <row r="207">
@@ -7251,14 +7251,14 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>7677.64951</v>
+        <v>6181.71267</v>
       </c>
       <c r="I207" t="n">
-        <v>71.2011733664349</v>
+        <v>72.0740741704179</v>
       </c>
     </row>
     <row r="208">
@@ -7416,14 +7416,14 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>晋商银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>3032.91513</v>
+        <v>3247.9682605582</v>
       </c>
       <c r="I212" t="n">
-        <v>69.9234727771249</v>
+        <v>69.03393177693211</v>
       </c>
     </row>
     <row r="213">
@@ -7449,14 +7449,14 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>浙江诸暨农村商业银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>619.7974275143</v>
+        <v>385.3558452965</v>
       </c>
       <c r="I213" t="n">
-        <v>63.4078338339018</v>
+        <v>63.1438957655492</v>
       </c>
     </row>
     <row r="214">
@@ -7548,14 +7548,14 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>温州银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>3247.9682605582</v>
+        <v>4827.83583</v>
       </c>
       <c r="I216" t="n">
-        <v>69.03393177693211</v>
+        <v>69.7388070815486</v>
       </c>
     </row>
     <row r="217">
@@ -8472,14 +8472,14 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>秦皇岛银行</t>
+          <t>绍兴银行</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>1351.9502288687</v>
+        <v>1848.016</v>
       </c>
       <c r="I244" t="n">
-        <v>65.7776126435696</v>
+        <v>65.6203755847682</v>
       </c>
     </row>
     <row r="245">
@@ -8505,14 +8505,14 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>长安银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H245" t="n">
-        <v>3781.8064458834</v>
+        <v>3458.63917</v>
       </c>
       <c r="I245" t="n">
-        <v>69.25951860287719</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="246">
@@ -8934,14 +8934,14 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H258" t="n">
-        <v>11616.28626</v>
+        <v>6086.86846</v>
       </c>
       <c r="I258" t="n">
-        <v>71.12456881390059</v>
+        <v>71.2247535597206</v>
       </c>
     </row>
     <row r="259">
@@ -8967,14 +8967,14 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>九台农商银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>2341.4024</v>
+        <v>3605.31843</v>
       </c>
       <c r="I259" t="n">
-        <v>68.1692428331144</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="260">
@@ -9165,14 +9165,14 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>晋商银行</t>
         </is>
       </c>
       <c r="H265" t="n">
-        <v>4416.03082</v>
+        <v>3032.91513</v>
       </c>
       <c r="I265" t="n">
-        <v>68.6579498971842</v>
+        <v>69.9234727771249</v>
       </c>
     </row>
     <row r="266">
@@ -9462,14 +9462,14 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H274" t="n">
-        <v>7677.64951</v>
+        <v>6181.71267</v>
       </c>
       <c r="I274" t="n">
-        <v>71.2011733664349</v>
+        <v>72.0740741704179</v>
       </c>
     </row>
     <row r="275">
@@ -9495,14 +9495,14 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>7677.64951</v>
+        <v>6181.71267</v>
       </c>
       <c r="I275" t="n">
-        <v>71.2011733664349</v>
+        <v>72.0740741704179</v>
       </c>
     </row>
     <row r="276">
@@ -9660,14 +9660,14 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H280" t="n">
-        <v>13836.61831</v>
+        <v>6450.46176</v>
       </c>
       <c r="I280" t="n">
-        <v>73.2921573923785</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="281">
@@ -9726,14 +9726,14 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>厦门国际银行</t>
+          <t>浙江泰隆商业银行</t>
         </is>
       </c>
       <c r="H282" t="n">
-        <v>10071.68916095</v>
+        <v>3125.5326306366</v>
       </c>
       <c r="I282" t="n">
-        <v>71.6384103799876</v>
+        <v>70.397581867795</v>
       </c>
     </row>
     <row r="283">
@@ -10221,14 +10221,14 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>长安银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>3781.8064458834</v>
+        <v>3458.63917</v>
       </c>
       <c r="I297" t="n">
-        <v>69.25951860287719</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="298">
@@ -10947,14 +10947,14 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H319" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I319" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="320">
@@ -10980,14 +10980,14 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>金华银行</t>
+          <t>浙江诸暨农村商业银行</t>
         </is>
       </c>
       <c r="H320" t="n">
-        <v>865.5948059999999</v>
+        <v>619.7974275143</v>
       </c>
       <c r="I320" t="n">
-        <v>64.0631536125269</v>
+        <v>63.4078338339018</v>
       </c>
     </row>
     <row r="321">
@@ -11211,14 +11211,14 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>中原银行</t>
         </is>
       </c>
       <c r="H327" t="n">
-        <v>7199.03932</v>
+        <v>7677.64951</v>
       </c>
       <c r="I327" t="n">
-        <v>71.8509793020107</v>
+        <v>71.2011733664349</v>
       </c>
     </row>
     <row r="328">
@@ -11442,14 +11442,14 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>江苏长江商业银行</t>
+          <t>南充农村商业银行</t>
         </is>
       </c>
       <c r="H334" t="n">
-        <v>385.3558452965</v>
+        <v>353.5103270274</v>
       </c>
       <c r="I334" t="n">
-        <v>63.1438957655492</v>
+        <v>63.5378536495271</v>
       </c>
     </row>
     <row r="335">
@@ -11541,14 +11541,14 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>苏州银行</t>
         </is>
       </c>
       <c r="H337" t="n">
-        <v>3585.04602</v>
+        <v>4530.29020092</v>
       </c>
       <c r="I337" t="n">
-        <v>68.109161932397</v>
+        <v>69.2813048455872</v>
       </c>
     </row>
     <row r="338">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>重庆银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H345" t="n">
-        <v>6189.5362</v>
+        <v>7683.46337</v>
       </c>
       <c r="I345" t="n">
-        <v>71.8853665893421</v>
+        <v>72.0373772811826</v>
       </c>
     </row>
     <row r="346">
@@ -11838,14 +11838,14 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>江苏长江商业银行</t>
+          <t>南充农村商业银行</t>
         </is>
       </c>
       <c r="H346" t="n">
-        <v>385.3558452965</v>
+        <v>353.5103270274</v>
       </c>
       <c r="I346" t="n">
-        <v>63.1438957655492</v>
+        <v>63.5378536495271</v>
       </c>
     </row>
     <row r="347">
@@ -11871,14 +11871,14 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>长沙银行</t>
+          <t>重庆农村商业银行</t>
         </is>
       </c>
       <c r="H347" t="n">
-        <v>7961.50318</v>
+        <v>12658.5107</v>
       </c>
       <c r="I347" t="n">
-        <v>71.0540377857304</v>
+        <v>71.6867243653551</v>
       </c>
     </row>
     <row r="348">
@@ -12597,14 +12597,14 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H369" t="n">
-        <v>4883.3472938066</v>
+        <v>5085.59808</v>
       </c>
       <c r="I369" t="n">
-        <v>69.7133394312531</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="370">
@@ -12663,14 +12663,14 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H371" t="n">
-        <v>4883.3472938066</v>
+        <v>5085.59808</v>
       </c>
       <c r="I371" t="n">
-        <v>69.7133394312531</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="372">
@@ -12795,14 +12795,14 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>资阳农商银行</t>
+          <t>四川隆昌农村商业银行</t>
         </is>
       </c>
       <c r="H375" t="n">
-        <v>264.3337146985</v>
+        <v>150.1754265619</v>
       </c>
       <c r="I375" t="n">
-        <v>61.5102649789681</v>
+        <v>61.442637636351</v>
       </c>
     </row>
     <row r="376">
@@ -13323,14 +13323,14 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H391" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I391" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="392">
@@ -13356,14 +13356,14 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H392" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I392" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="393">
@@ -13389,14 +13389,14 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H393" t="n">
-        <v>11616.28626</v>
+        <v>6086.86846</v>
       </c>
       <c r="I393" t="n">
-        <v>71.12456881390059</v>
+        <v>71.2247535597206</v>
       </c>
     </row>
     <row r="394">
@@ -13620,14 +13620,14 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>晋商银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H400" t="n">
-        <v>3032.91513</v>
+        <v>3247.9682605582</v>
       </c>
       <c r="I400" t="n">
-        <v>69.9234727771249</v>
+        <v>69.03393177693211</v>
       </c>
     </row>
     <row r="401">
@@ -14577,14 +14577,14 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>苏州银行</t>
         </is>
       </c>
       <c r="H429" t="n">
-        <v>3585.04602</v>
+        <v>4530.29020092</v>
       </c>
       <c r="I429" t="n">
-        <v>68.109161932397</v>
+        <v>69.2813048455872</v>
       </c>
     </row>
     <row r="430">
@@ -15864,14 +15864,14 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>贵州银行</t>
         </is>
       </c>
       <c r="H468" t="n">
-        <v>4530.29020092</v>
+        <v>5038.80166</v>
       </c>
       <c r="I468" t="n">
-        <v>69.2813048455872</v>
+        <v>69.3658151270344</v>
       </c>
     </row>
     <row r="469">
@@ -16062,14 +16062,14 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H474" t="n">
-        <v>7677.64951</v>
+        <v>6181.71267</v>
       </c>
       <c r="I474" t="n">
-        <v>71.2011733664349</v>
+        <v>72.0740741704179</v>
       </c>
     </row>
     <row r="475">
@@ -16227,14 +16227,14 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>贵州银行</t>
         </is>
       </c>
       <c r="H479" t="n">
-        <v>4530.29020092</v>
+        <v>5038.80166</v>
       </c>
       <c r="I479" t="n">
-        <v>69.2813048455872</v>
+        <v>69.3658151270344</v>
       </c>
     </row>
     <row r="480">
@@ -16392,14 +16392,14 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>长城华西银行</t>
+          <t>湖州银行</t>
         </is>
       </c>
       <c r="H484" t="n">
-        <v>1243.9162112291</v>
+        <v>1013.9856430385</v>
       </c>
       <c r="I484" t="n">
-        <v>64.89998409303939</v>
+        <v>64.2951595228367</v>
       </c>
     </row>
     <row r="485">
@@ -16425,14 +16425,14 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H485" t="n">
-        <v>3458.63917</v>
+        <v>5085.59808</v>
       </c>
       <c r="I485" t="n">
-        <v>68.5394215327612</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="486">
@@ -16953,14 +16953,14 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>长安银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H501" t="n">
-        <v>3781.8064458834</v>
+        <v>3458.63917</v>
       </c>
       <c r="I501" t="n">
-        <v>69.25951860287719</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="502">
@@ -17184,14 +17184,14 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H508" t="n">
-        <v>5933.61093</v>
+        <v>4883.3472938066</v>
       </c>
       <c r="I508" t="n">
-        <v>70.0774777244287</v>
+        <v>69.7133394312531</v>
       </c>
     </row>
     <row r="509">
@@ -17778,14 +17778,14 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H526" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I526" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="527">
@@ -17943,14 +17943,14 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>九台农商银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H531" t="n">
-        <v>2341.4024</v>
+        <v>3605.31843</v>
       </c>
       <c r="I531" t="n">
-        <v>68.1692428331144</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="532">
@@ -18339,14 +18339,14 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>九台农商银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H543" t="n">
-        <v>2341.4024</v>
+        <v>3605.31843</v>
       </c>
       <c r="I543" t="n">
-        <v>68.1692428331144</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="544">
@@ -18471,14 +18471,14 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H547" t="n">
-        <v>7677.64951</v>
+        <v>6181.71267</v>
       </c>
       <c r="I547" t="n">
-        <v>71.2011733664349</v>
+        <v>72.0740741704179</v>
       </c>
     </row>
     <row r="548">
@@ -18570,14 +18570,14 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H550" t="n">
-        <v>4883.3472938066</v>
+        <v>5085.59808</v>
       </c>
       <c r="I550" t="n">
-        <v>69.7133394312531</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="551">
@@ -19975,14 +19975,14 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>华融湘江银行</t>
         </is>
       </c>
       <c r="H593" t="n">
-        <v>3585.04602</v>
+        <v>2341.4024</v>
       </c>
       <c r="I593" t="n">
-        <v>68.109161932397</v>
+        <v>68.2937344649237</v>
       </c>
     </row>
     <row r="594">
@@ -20074,14 +20074,14 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>晋商银行</t>
         </is>
       </c>
       <c r="H596" t="n">
-        <v>4416.03082</v>
+        <v>3032.91513</v>
       </c>
       <c r="I596" t="n">
-        <v>68.6579498971842</v>
+        <v>69.9234727771249</v>
       </c>
     </row>
     <row r="597">
@@ -20140,14 +20140,14 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>大连银行</t>
         </is>
       </c>
       <c r="H598" t="n">
-        <v>5085.59808</v>
+        <v>4557.00358</v>
       </c>
       <c r="I598" t="n">
-        <v>69.7366709204194</v>
+        <v>69.3438143756799</v>
       </c>
     </row>
     <row r="599">
@@ -21097,14 +21097,14 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>桂林银行</t>
+          <t>汉口银行</t>
         </is>
       </c>
       <c r="H627" t="n">
-        <v>4425.57902446</v>
+        <v>4687.55934</v>
       </c>
       <c r="I627" t="n">
-        <v>69.9601445227925</v>
+        <v>68.6475772629005</v>
       </c>
     </row>
     <row r="628">
@@ -21130,14 +21130,14 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>桂林银行</t>
+          <t>汉口银行</t>
         </is>
       </c>
       <c r="H628" t="n">
-        <v>4425.57902446</v>
+        <v>4687.55934</v>
       </c>
       <c r="I628" t="n">
-        <v>69.9601445227925</v>
+        <v>68.6475772629005</v>
       </c>
     </row>
     <row r="629">
@@ -22021,14 +22021,14 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H655" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I655" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="656">
@@ -22054,14 +22054,14 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H656" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I656" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="657">
@@ -22549,14 +22549,14 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>温州银行</t>
+          <t>华融湘江银行</t>
         </is>
       </c>
       <c r="H671" t="n">
-        <v>3247.9682605582</v>
+        <v>2341.4024</v>
       </c>
       <c r="I671" t="n">
-        <v>69.03393177693211</v>
+        <v>68.2937344649237</v>
       </c>
     </row>
     <row r="672">
@@ -23956,14 +23956,14 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H714" t="n">
-        <v>26188.7426</v>
+        <v>17489.46747</v>
       </c>
       <c r="I714" t="n">
-        <v>78.0609651928749</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="715">
@@ -24055,14 +24055,14 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>长安银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H717" t="n">
-        <v>3781.8064458834</v>
+        <v>3458.63917</v>
       </c>
       <c r="I717" t="n">
-        <v>69.25951860287719</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="718">
@@ -24121,14 +24121,14 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H719" t="n">
-        <v>26188.7426</v>
+        <v>17489.46747</v>
       </c>
       <c r="I719" t="n">
-        <v>78.0609651928749</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="720">
@@ -24253,14 +24253,14 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H723" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I723" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="724">
@@ -24286,14 +24286,14 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>长安银行</t>
         </is>
       </c>
       <c r="H724" t="n">
-        <v>4627.1001912686</v>
+        <v>3781.8064458834</v>
       </c>
       <c r="I724" t="n">
-        <v>68.503554899091</v>
+        <v>69.25951860287719</v>
       </c>
     </row>
     <row r="725">
@@ -25144,14 +25144,14 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>长安银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H750" t="n">
-        <v>3781.8064458834</v>
+        <v>3458.63917</v>
       </c>
       <c r="I750" t="n">
-        <v>69.25951860287719</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="751">
@@ -25177,14 +25177,14 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H751" t="n">
-        <v>26188.7426</v>
+        <v>17489.46747</v>
       </c>
       <c r="I751" t="n">
-        <v>78.0609651928749</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="752">
@@ -25342,14 +25342,14 @@
       </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H756" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I756" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="757">
@@ -25375,14 +25375,14 @@
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H757" t="n">
-        <v>12658.5107</v>
+        <v>10061.26253</v>
       </c>
       <c r="I757" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6661913242759</v>
       </c>
     </row>
     <row r="758">
@@ -25408,14 +25408,14 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>长安银行</t>
         </is>
       </c>
       <c r="H758" t="n">
-        <v>4627.1001912686</v>
+        <v>3781.8064458834</v>
       </c>
       <c r="I758" t="n">
-        <v>68.503554899091</v>
+        <v>69.25951860287719</v>
       </c>
     </row>
     <row r="759">
@@ -26238,14 +26238,14 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>中原银行</t>
         </is>
       </c>
       <c r="H784" t="n">
-        <v>7199.03932</v>
+        <v>7677.64951</v>
       </c>
       <c r="I784" t="n">
-        <v>71.8509793020107</v>
+        <v>71.2011733664349</v>
       </c>
     </row>
     <row r="785">
@@ -26337,14 +26337,14 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>贵州银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H787" t="n">
-        <v>5038.80166</v>
+        <v>4827.83583</v>
       </c>
       <c r="I787" t="n">
-        <v>69.3658151270344</v>
+        <v>69.7388070815486</v>
       </c>
     </row>
     <row r="788">
@@ -26535,14 +26535,14 @@
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>大连银行</t>
         </is>
       </c>
       <c r="H793" t="n">
-        <v>5085.59808</v>
+        <v>4557.00358</v>
       </c>
       <c r="I793" t="n">
-        <v>69.7366709204194</v>
+        <v>69.3438143756799</v>
       </c>
     </row>
     <row r="794">
@@ -26733,14 +26733,14 @@
       </c>
       <c r="G799" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>大连银行</t>
         </is>
       </c>
       <c r="H799" t="n">
-        <v>5085.59808</v>
+        <v>4557.00358</v>
       </c>
       <c r="I799" t="n">
-        <v>69.7366709204194</v>
+        <v>69.3438143756799</v>
       </c>
     </row>
     <row r="800">
@@ -27492,14 +27492,14 @@
       </c>
       <c r="G822" t="inlineStr">
         <is>
-          <t>贵州银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H822" t="n">
-        <v>5038.80166</v>
+        <v>4827.83583</v>
       </c>
       <c r="I822" t="n">
-        <v>69.3658151270344</v>
+        <v>69.7388070815486</v>
       </c>
     </row>
     <row r="823">
@@ -27591,14 +27591,14 @@
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>贵州银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H825" t="n">
-        <v>5038.80166</v>
+        <v>4827.83583</v>
       </c>
       <c r="I825" t="n">
-        <v>69.3658151270344</v>
+        <v>69.7388070815486</v>
       </c>
     </row>
     <row r="826">
@@ -27624,14 +27624,14 @@
       </c>
       <c r="G826" t="inlineStr">
         <is>
-          <t>贵州银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H826" t="n">
-        <v>5038.80166</v>
+        <v>4827.83583</v>
       </c>
       <c r="I826" t="n">
-        <v>69.3658151270344</v>
+        <v>69.7388070815486</v>
       </c>
     </row>
     <row r="827">
@@ -27657,14 +27657,14 @@
       </c>
       <c r="G827" t="inlineStr">
         <is>
-          <t>贵州银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H827" t="n">
-        <v>5038.80166</v>
+        <v>4827.83583</v>
       </c>
       <c r="I827" t="n">
-        <v>69.3658151270344</v>
+        <v>69.7388070815486</v>
       </c>
     </row>
     <row r="828">
@@ -27690,14 +27690,14 @@
       </c>
       <c r="G828" t="inlineStr">
         <is>
-          <t>贵州银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H828" t="n">
-        <v>5038.80166</v>
+        <v>4827.83583</v>
       </c>
       <c r="I828" t="n">
-        <v>69.3658151270344</v>
+        <v>69.7388070815486</v>
       </c>
     </row>
     <row r="829">
@@ -28284,14 +28284,14 @@
       </c>
       <c r="G846" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>长安银行</t>
         </is>
       </c>
       <c r="H846" t="n">
-        <v>4627.1001912686</v>
+        <v>3781.8064458834</v>
       </c>
       <c r="I846" t="n">
-        <v>68.503554899091</v>
+        <v>69.25951860287719</v>
       </c>
     </row>
     <row r="847">
@@ -28317,14 +28317,14 @@
       </c>
       <c r="G847" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>长安银行</t>
         </is>
       </c>
       <c r="H847" t="n">
-        <v>4627.1001912686</v>
+        <v>3781.8064458834</v>
       </c>
       <c r="I847" t="n">
-        <v>68.503554899091</v>
+        <v>69.25951860287719</v>
       </c>
     </row>
     <row r="848">
@@ -28614,14 +28614,14 @@
       </c>
       <c r="G856" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H856" t="n">
-        <v>7677.64951</v>
+        <v>6181.71267</v>
       </c>
       <c r="I856" t="n">
-        <v>71.2011733664349</v>
+        <v>72.0740741704179</v>
       </c>
     </row>
     <row r="857">
@@ -28779,14 +28779,14 @@
       </c>
       <c r="G861" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>贵州银行</t>
         </is>
       </c>
       <c r="H861" t="n">
-        <v>4530.29020092</v>
+        <v>5038.80166</v>
       </c>
       <c r="I861" t="n">
-        <v>69.2813048455872</v>
+        <v>69.3658151270344</v>
       </c>
     </row>
     <row r="862">
@@ -29076,14 +29076,14 @@
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>浙江民泰商业银行</t>
+          <t>浙江绍兴瑞丰农村商业银行</t>
         </is>
       </c>
       <c r="H870" t="n">
-        <v>2032.7239010288</v>
+        <v>1368.67516</v>
       </c>
       <c r="I870" t="n">
-        <v>67.00237018649089</v>
+        <v>66.0644801855137</v>
       </c>
     </row>
     <row r="871">
@@ -29109,14 +29109,14 @@
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H871" t="n">
-        <v>4615.02983</v>
+        <v>3458.63917</v>
       </c>
       <c r="I871" t="n">
-        <v>69.23028736012439</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="872">
@@ -29934,14 +29934,14 @@
       </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>华融湘江银行</t>
+          <t>青岛农村商业银行</t>
         </is>
       </c>
       <c r="H896" t="n">
-        <v>2341.4024</v>
+        <v>4304.3809</v>
       </c>
       <c r="I896" t="n">
-        <v>68.2937344649237</v>
+        <v>68.8857294363752</v>
       </c>
     </row>
     <row r="897">
@@ -29967,14 +29967,14 @@
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H897" t="n">
-        <v>7677.64951</v>
+        <v>6181.71267</v>
       </c>
       <c r="I897" t="n">
-        <v>71.2011733664349</v>
+        <v>72.0740741704179</v>
       </c>
     </row>
     <row r="898">
@@ -30000,14 +30000,14 @@
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>广州银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H898" t="n">
-        <v>7200.9652558686</v>
+        <v>6189.5362</v>
       </c>
       <c r="I898" t="n">
-        <v>71.1656836998804</v>
+        <v>71.8853665893421</v>
       </c>
     </row>
     <row r="899">
@@ -30066,14 +30066,14 @@
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>广州银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H900" t="n">
-        <v>7200.9652558686</v>
+        <v>6189.5362</v>
       </c>
       <c r="I900" t="n">
-        <v>71.1656836998804</v>
+        <v>71.8853665893421</v>
       </c>
     </row>
     <row r="901">
@@ -30726,14 +30726,14 @@
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H920" t="n">
-        <v>49213.8</v>
+        <v>15827.07598</v>
       </c>
       <c r="I920" t="n">
-        <v>80.47651949416399</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="921">
@@ -30759,14 +30759,14 @@
       </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H921" t="n">
-        <v>49213.8</v>
+        <v>15827.07598</v>
       </c>
       <c r="I921" t="n">
-        <v>80.47651949416399</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="922">
@@ -30792,14 +30792,14 @@
       </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H922" t="n">
-        <v>49213.8</v>
+        <v>15827.07598</v>
       </c>
       <c r="I922" t="n">
-        <v>80.47651949416399</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="923">
@@ -31287,14 +31287,14 @@
       </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H937" t="n">
-        <v>49213.8</v>
+        <v>15827.07598</v>
       </c>
       <c r="I937" t="n">
-        <v>80.47651949416399</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="938">
@@ -31320,14 +31320,14 @@
       </c>
       <c r="G938" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H938" t="n">
-        <v>49213.8</v>
+        <v>15827.07598</v>
       </c>
       <c r="I938" t="n">
-        <v>80.47651949416399</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="939">
@@ -31452,14 +31452,14 @@
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H942" t="n">
-        <v>49213.8</v>
+        <v>15827.07598</v>
       </c>
       <c r="I942" t="n">
-        <v>80.47651949416399</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="943">
@@ -31518,14 +31518,14 @@
       </c>
       <c r="G944" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H944" t="n">
-        <v>49213.8</v>
+        <v>15827.07598</v>
       </c>
       <c r="I944" t="n">
-        <v>80.47651949416399</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="945">
@@ -32343,14 +32343,14 @@
       </c>
       <c r="G969" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H969" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I969" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="970">
@@ -32376,14 +32376,14 @@
       </c>
       <c r="G970" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H970" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I970" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="971">
@@ -32475,14 +32475,14 @@
       </c>
       <c r="G973" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H973" t="n">
-        <v>7683.46337</v>
+        <v>11616.28626</v>
       </c>
       <c r="I973" t="n">
-        <v>72.0373772811826</v>
+        <v>71.12456881390059</v>
       </c>
     </row>
     <row r="974">
@@ -32706,14 +32706,14 @@
       </c>
       <c r="G980" t="inlineStr">
         <is>
-          <t>九台农商银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H980" t="n">
-        <v>2341.4024</v>
+        <v>3605.31843</v>
       </c>
       <c r="I980" t="n">
-        <v>68.1692428331144</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="981">
@@ -32937,14 +32937,14 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H987" t="n">
-        <v>12658.5107</v>
+        <v>6450.46176</v>
       </c>
       <c r="I987" t="n">
-        <v>71.6867243653551</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="988">
@@ -33135,14 +33135,14 @@
       </c>
       <c r="G993" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H993" t="n">
-        <v>4883.3472938066</v>
+        <v>5085.59808</v>
       </c>
       <c r="I993" t="n">
-        <v>69.7133394312531</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="994">
@@ -33696,14 +33696,14 @@
       </c>
       <c r="G1010" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>长安银行</t>
         </is>
       </c>
       <c r="H1010" t="n">
-        <v>4627.1001912686</v>
+        <v>3781.8064458834</v>
       </c>
       <c r="I1010" t="n">
-        <v>68.503554899091</v>
+        <v>69.25951860287719</v>
       </c>
     </row>
     <row r="1011">
@@ -33729,14 +33729,14 @@
       </c>
       <c r="G1011" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>长安银行</t>
         </is>
       </c>
       <c r="H1011" t="n">
-        <v>4627.1001912686</v>
+        <v>3781.8064458834</v>
       </c>
       <c r="I1011" t="n">
-        <v>68.503554899091</v>
+        <v>69.25951860287719</v>
       </c>
     </row>
     <row r="1012">
@@ -33927,14 +33927,14 @@
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1017" t="n">
-        <v>12658.5107</v>
+        <v>6450.46176</v>
       </c>
       <c r="I1017" t="n">
-        <v>71.6867243653551</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="1018">
@@ -34210,14 +34210,14 @@
       </c>
       <c r="G1026" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1026" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1026" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1027">
@@ -34342,14 +34342,14 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1030" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1030" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1031">
@@ -35299,14 +35299,14 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>上海农村商业银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H1059" t="n">
-        <v>11583.76261</v>
+        <v>7200.9652558686</v>
       </c>
       <c r="I1059" t="n">
-        <v>71.2862426900504</v>
+        <v>71.1656836998804</v>
       </c>
     </row>
     <row r="1060">
@@ -35761,14 +35761,14 @@
       </c>
       <c r="G1073" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H1073" t="n">
-        <v>7683.46337</v>
+        <v>11616.28626</v>
       </c>
       <c r="I1073" t="n">
-        <v>72.0373772811826</v>
+        <v>71.12456881390059</v>
       </c>
     </row>
     <row r="1074">
@@ -36322,14 +36322,14 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H1090" t="n">
-        <v>7683.46337</v>
+        <v>11616.28626</v>
       </c>
       <c r="I1090" t="n">
-        <v>72.0373772811826</v>
+        <v>71.12456881390059</v>
       </c>
     </row>
     <row r="1091">
@@ -36652,14 +36652,14 @@
       </c>
       <c r="G1100" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H1100" t="n">
-        <v>7683.46337</v>
+        <v>11616.28626</v>
       </c>
       <c r="I1100" t="n">
-        <v>72.0373772811826</v>
+        <v>71.12456881390059</v>
       </c>
     </row>
     <row r="1101">
@@ -37180,14 +37180,14 @@
       </c>
       <c r="G1116" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1116" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1116" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1117">
@@ -37246,14 +37246,14 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>晋商银行</t>
         </is>
       </c>
       <c r="H1118" t="n">
-        <v>4416.03082</v>
+        <v>3032.91513</v>
       </c>
       <c r="I1118" t="n">
-        <v>68.6579498971842</v>
+        <v>69.9234727771249</v>
       </c>
     </row>
     <row r="1119">
@@ -37279,14 +37279,14 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H1119" t="n">
-        <v>3458.63917</v>
+        <v>5085.59808</v>
       </c>
       <c r="I1119" t="n">
-        <v>68.5394215327612</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="1120">
@@ -37312,14 +37312,14 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1120" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1120" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1121">
@@ -37708,14 +37708,14 @@
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>中原银行</t>
         </is>
       </c>
       <c r="H1132" t="n">
-        <v>7199.03932</v>
+        <v>7677.64951</v>
       </c>
       <c r="I1132" t="n">
-        <v>71.8509793020107</v>
+        <v>71.2011733664349</v>
       </c>
     </row>
     <row r="1133">
@@ -37741,14 +37741,14 @@
       </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H1133" t="n">
-        <v>4883.3472938066</v>
+        <v>5085.59808</v>
       </c>
       <c r="I1133" t="n">
-        <v>69.7133394312531</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="1134">
@@ -38170,14 +38170,14 @@
       </c>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1146" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1146" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1147">
@@ -38203,14 +38203,14 @@
       </c>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1147" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1147" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1148">
@@ -38236,14 +38236,14 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>曲靖市商业银行</t>
+          <t>泰安银行</t>
         </is>
       </c>
       <c r="H1148" t="n">
-        <v>632.4067593372</v>
+        <v>902.8904055279</v>
       </c>
       <c r="I1148" t="n">
-        <v>63.1947449639103</v>
+        <v>63.3695987070906</v>
       </c>
     </row>
     <row r="1149">
@@ -38401,14 +38401,14 @@
       </c>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1153" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1153" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1154">
@@ -38632,14 +38632,14 @@
       </c>
       <c r="G1160" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1160" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1160" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1161">
@@ -38896,14 +38896,14 @@
       </c>
       <c r="G1168" t="inlineStr">
         <is>
-          <t>贵州银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H1168" t="n">
-        <v>5038.80166</v>
+        <v>4827.83583</v>
       </c>
       <c r="I1168" t="n">
-        <v>69.3658151270344</v>
+        <v>69.7388070815486</v>
       </c>
     </row>
     <row r="1169">
@@ -39061,14 +39061,14 @@
       </c>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H1173" t="n">
-        <v>7683.46337</v>
+        <v>11616.28626</v>
       </c>
       <c r="I1173" t="n">
-        <v>72.0373772811826</v>
+        <v>71.12456881390059</v>
       </c>
     </row>
     <row r="1174">
@@ -39094,14 +39094,14 @@
       </c>
       <c r="G1174" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>威海银行</t>
         </is>
       </c>
       <c r="H1174" t="n">
-        <v>4003.4057092893</v>
+        <v>3045.2081525351</v>
       </c>
       <c r="I1174" t="n">
-        <v>68.44619561046569</v>
+        <v>69.19205752169709</v>
       </c>
     </row>
     <row r="1175">
@@ -39391,14 +39391,14 @@
       </c>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1183" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1183" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1184">
@@ -39457,14 +39457,14 @@
       </c>
       <c r="G1185" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1185" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1185" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1186">
@@ -39886,14 +39886,14 @@
       </c>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>苏州银行</t>
         </is>
       </c>
       <c r="H1198" t="n">
-        <v>3585.04602</v>
+        <v>4530.29020092</v>
       </c>
       <c r="I1198" t="n">
-        <v>68.109161932397</v>
+        <v>69.2813048455872</v>
       </c>
     </row>
     <row r="1199">
@@ -40117,14 +40117,14 @@
       </c>
       <c r="G1205" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H1205" t="n">
-        <v>5933.61093</v>
+        <v>4883.3472938066</v>
       </c>
       <c r="I1205" t="n">
-        <v>70.0774777244287</v>
+        <v>69.7133394312531</v>
       </c>
     </row>
     <row r="1206">
@@ -40216,14 +40216,14 @@
       </c>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>苏州银行</t>
         </is>
       </c>
       <c r="H1208" t="n">
-        <v>3585.04602</v>
+        <v>4530.29020092</v>
       </c>
       <c r="I1208" t="n">
-        <v>68.109161932397</v>
+        <v>69.2813048455872</v>
       </c>
     </row>
     <row r="1209">
@@ -40414,14 +40414,14 @@
       </c>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H1214" t="n">
-        <v>7683.46337</v>
+        <v>6086.86846</v>
       </c>
       <c r="I1214" t="n">
-        <v>72.0373772811826</v>
+        <v>71.2247535597206</v>
       </c>
     </row>
     <row r="1215">
@@ -40744,14 +40744,14 @@
       </c>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1224" t="n">
-        <v>26531.98679</v>
+        <v>15827.07598</v>
       </c>
       <c r="I1224" t="n">
-        <v>77.77216176610339</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="1225">
@@ -40810,14 +40810,14 @@
       </c>
       <c r="G1226" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1226" t="n">
-        <v>26531.98679</v>
+        <v>15827.07598</v>
       </c>
       <c r="I1226" t="n">
-        <v>77.77216176610339</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="1227">
@@ -41041,14 +41041,14 @@
       </c>
       <c r="G1233" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>中原银行</t>
         </is>
       </c>
       <c r="H1233" t="n">
-        <v>7199.03932</v>
+        <v>7677.64951</v>
       </c>
       <c r="I1233" t="n">
-        <v>71.8509793020107</v>
+        <v>71.2011733664349</v>
       </c>
     </row>
     <row r="1234">
@@ -41767,14 +41767,14 @@
       </c>
       <c r="G1255" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1255" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1255" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1256">
@@ -41866,14 +41866,14 @@
       </c>
       <c r="G1258" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1258" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1258" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1259">
@@ -41965,14 +41965,14 @@
       </c>
       <c r="G1261" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1261" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1261" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1262">
@@ -42031,14 +42031,14 @@
       </c>
       <c r="G1263" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1263" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1263" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1264">
@@ -42130,14 +42130,14 @@
       </c>
       <c r="G1266" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1266" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1266" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1267">
@@ -42229,14 +42229,14 @@
       </c>
       <c r="G1269" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H1269" t="n">
-        <v>3458.63917</v>
+        <v>5085.59808</v>
       </c>
       <c r="I1269" t="n">
-        <v>68.5394215327612</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="1270">
@@ -42460,14 +42460,14 @@
       </c>
       <c r="G1276" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H1276" t="n">
-        <v>3458.63917</v>
+        <v>5085.59808</v>
       </c>
       <c r="I1276" t="n">
-        <v>68.5394215327612</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="1277">
@@ -42493,14 +42493,14 @@
       </c>
       <c r="G1277" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H1277" t="n">
-        <v>3458.63917</v>
+        <v>5085.59808</v>
       </c>
       <c r="I1277" t="n">
-        <v>68.5394215327612</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="1278">
@@ -43351,14 +43351,14 @@
       </c>
       <c r="G1303" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1303" t="n">
-        <v>12658.5107</v>
+        <v>6450.46176</v>
       </c>
       <c r="I1303" t="n">
-        <v>71.6867243653551</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="1304">
@@ -43384,14 +43384,14 @@
       </c>
       <c r="G1304" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1304" t="n">
-        <v>12658.5107</v>
+        <v>6450.46176</v>
       </c>
       <c r="I1304" t="n">
-        <v>71.6867243653551</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="1305">
@@ -43417,14 +43417,14 @@
       </c>
       <c r="G1305" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H1305" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I1305" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="1306">
@@ -43648,14 +43648,14 @@
       </c>
       <c r="G1312" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1312" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1312" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1313">
@@ -43681,14 +43681,14 @@
       </c>
       <c r="G1313" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1313" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1313" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1314">
@@ -43945,14 +43945,14 @@
       </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1321" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1321" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1322">
@@ -43978,14 +43978,14 @@
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1322" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1322" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1323">
@@ -44143,14 +44143,14 @@
       </c>
       <c r="G1327" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1327" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1327" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1328">
@@ -44176,14 +44176,14 @@
       </c>
       <c r="G1328" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1328" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1328" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1329">
@@ -44275,14 +44275,14 @@
       </c>
       <c r="G1331" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1331" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I1331" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="1332">
@@ -44704,14 +44704,14 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H1344" t="n">
-        <v>5933.61093</v>
+        <v>4883.3472938066</v>
       </c>
       <c r="I1344" t="n">
-        <v>70.0774777244287</v>
+        <v>69.7133394312531</v>
       </c>
     </row>
     <row r="1345">
@@ -44770,14 +44770,14 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>上海农村商业银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H1346" t="n">
-        <v>11583.76261</v>
+        <v>7200.9652558686</v>
       </c>
       <c r="I1346" t="n">
-        <v>71.2862426900504</v>
+        <v>71.1656836998804</v>
       </c>
     </row>
     <row r="1347">
@@ -45430,14 +45430,14 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>温州银行</t>
+          <t>华融湘江银行</t>
         </is>
       </c>
       <c r="H1366" t="n">
-        <v>3247.9682605582</v>
+        <v>2341.4024</v>
       </c>
       <c r="I1366" t="n">
-        <v>69.03393177693211</v>
+        <v>68.2937344649237</v>
       </c>
     </row>
     <row r="1367">
@@ -45515,14 +45515,14 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>芜湖扬子农村商业银行</t>
+          <t>江苏大丰农村商业银行</t>
         </is>
       </c>
       <c r="H1369" t="n">
-        <v>486.8610119476</v>
+        <v>539.7543591378</v>
       </c>
       <c r="I1369" t="n">
-        <v>61.5456981827624</v>
+        <v>61.4099371946313</v>
       </c>
     </row>
     <row r="1370">
@@ -45812,14 +45812,14 @@
       </c>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>温州银行</t>
+          <t>华融湘江银行</t>
         </is>
       </c>
       <c r="H1378" t="n">
-        <v>3247.9682605582</v>
+        <v>2341.4024</v>
       </c>
       <c r="I1378" t="n">
-        <v>69.03393177693211</v>
+        <v>68.2937344649237</v>
       </c>
     </row>
     <row r="1379">
@@ -46010,14 +46010,14 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>承德银行</t>
+          <t>石嘴山银行</t>
         </is>
       </c>
       <c r="H1384" t="n">
-        <v>1714.3099494871</v>
+        <v>737.4170102653</v>
       </c>
       <c r="I1384" t="n">
-        <v>64.7539744351911</v>
+        <v>63.9675729916668</v>
       </c>
     </row>
     <row r="1385">
@@ -46109,14 +46109,14 @@
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>温州银行</t>
+          <t>华融湘江银行</t>
         </is>
       </c>
       <c r="H1387" t="n">
-        <v>3247.9682605582</v>
+        <v>2341.4024</v>
       </c>
       <c r="I1387" t="n">
-        <v>69.03393177693211</v>
+        <v>68.2937344649237</v>
       </c>
     </row>
     <row r="1388">
@@ -46736,14 +46736,14 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>赣州银行</t>
         </is>
       </c>
       <c r="H1406" t="n">
-        <v>5085.59808</v>
+        <v>2445.9463400456</v>
       </c>
       <c r="I1406" t="n">
-        <v>69.7366709204194</v>
+        <v>69.47787648355229</v>
       </c>
     </row>
     <row r="1407">
@@ -46802,14 +46802,14 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1408" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I1408" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="1409">
@@ -46835,14 +46835,14 @@
       </c>
       <c r="G1409" t="inlineStr">
         <is>
-          <t>浙江民泰商业银行</t>
+          <t>邯郸银行</t>
         </is>
       </c>
       <c r="H1409" t="n">
-        <v>2032.7239010288</v>
+        <v>2054.9236546753</v>
       </c>
       <c r="I1409" t="n">
-        <v>67.00237018649089</v>
+        <v>67.83647408669169</v>
       </c>
     </row>
     <row r="1410">
@@ -47000,14 +47000,14 @@
       </c>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>威海银行</t>
         </is>
       </c>
       <c r="H1414" t="n">
-        <v>4003.4057092893</v>
+        <v>3045.2081525351</v>
       </c>
       <c r="I1414" t="n">
-        <v>68.44619561046569</v>
+        <v>69.19205752169709</v>
       </c>
     </row>
     <row r="1415">
@@ -47528,14 +47528,14 @@
       </c>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>齐鲁银行</t>
+          <t>四川天府银行</t>
         </is>
       </c>
       <c r="H1430" t="n">
-        <v>4334.13706</v>
+        <v>2262.1836</v>
       </c>
       <c r="I1430" t="n">
-        <v>68.12474014501031</v>
+        <v>68.8980218927443</v>
       </c>
     </row>
     <row r="1431">
@@ -47561,14 +47561,14 @@
       </c>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>秦皇岛银行</t>
+          <t>绍兴银行</t>
         </is>
       </c>
       <c r="H1431" t="n">
-        <v>1351.9502288687</v>
+        <v>1848.016</v>
       </c>
       <c r="I1431" t="n">
-        <v>65.7776126435696</v>
+        <v>65.6203755847682</v>
       </c>
     </row>
     <row r="1432">
@@ -47594,14 +47594,14 @@
       </c>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>江苏如东农商银行</t>
+          <t>四川仪陇农村商业银行</t>
         </is>
       </c>
       <c r="H1432" t="n">
-        <v>492.8571860005</v>
+        <v>239.3327704554</v>
       </c>
       <c r="I1432" t="n">
-        <v>61.4089371275414</v>
+        <v>61.5440135919819</v>
       </c>
     </row>
     <row r="1433">
@@ -48122,14 +48122,14 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>晋商银行</t>
         </is>
       </c>
       <c r="H1448" t="n">
-        <v>4416.03082</v>
+        <v>3032.91513</v>
       </c>
       <c r="I1448" t="n">
-        <v>68.6579498971842</v>
+        <v>69.9234727771249</v>
       </c>
     </row>
     <row r="1449">
@@ -48188,14 +48188,14 @@
       </c>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>华融湘江银行</t>
         </is>
       </c>
       <c r="H1450" t="n">
-        <v>3585.04602</v>
+        <v>2341.4024</v>
       </c>
       <c r="I1450" t="n">
-        <v>68.109161932397</v>
+        <v>68.2937344649237</v>
       </c>
     </row>
     <row r="1451">
@@ -48320,14 +48320,14 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>中山农村商业银行</t>
+          <t>长城华西银行</t>
         </is>
       </c>
       <c r="H1454" t="n">
-        <v>1698.2460492303</v>
+        <v>1243.9162112291</v>
       </c>
       <c r="I1454" t="n">
-        <v>64.5266139521615</v>
+        <v>64.89998409303939</v>
       </c>
     </row>
     <row r="1455">
@@ -48980,14 +48980,14 @@
       </c>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>昆仑银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H1474" t="n">
-        <v>3552.3445804938</v>
+        <v>3247.9682605582</v>
       </c>
       <c r="I1474" t="n">
-        <v>69.2957748269591</v>
+        <v>69.03393177693211</v>
       </c>
     </row>
     <row r="1475">
@@ -49838,14 +49838,14 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H1500" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I1500" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="1501">
@@ -49871,14 +49871,14 @@
       </c>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H1501" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I1501" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="1502">
@@ -52643,14 +52643,14 @@
       </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H1585" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I1585" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="1586">
@@ -52775,14 +52775,14 @@
       </c>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H1589" t="n">
-        <v>7677.64951</v>
+        <v>6181.71267</v>
       </c>
       <c r="I1589" t="n">
-        <v>71.2011733664349</v>
+        <v>72.0740741704179</v>
       </c>
     </row>
     <row r="1590">
@@ -53468,14 +53468,14 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>重庆三峡银行</t>
         </is>
       </c>
       <c r="H1610" t="n">
-        <v>4627.1001912686</v>
+        <v>2403.6550315359</v>
       </c>
       <c r="I1610" t="n">
-        <v>68.503554899091</v>
+        <v>68.64419483468809</v>
       </c>
     </row>
     <row r="1611">
@@ -53732,14 +53732,14 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>昆仑银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H1618" t="n">
-        <v>3552.3445804938</v>
+        <v>3247.9682605582</v>
       </c>
       <c r="I1618" t="n">
-        <v>69.2957748269591</v>
+        <v>69.03393177693211</v>
       </c>
     </row>
     <row r="1619">
@@ -53798,14 +53798,14 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>昆仑银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H1620" t="n">
-        <v>3552.3445804938</v>
+        <v>3247.9682605582</v>
       </c>
       <c r="I1620" t="n">
-        <v>69.2957748269591</v>
+        <v>69.03393177693211</v>
       </c>
     </row>
     <row r="1621">
@@ -53996,14 +53996,14 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>华融湘江银行</t>
+          <t>青岛农村商业银行</t>
         </is>
       </c>
       <c r="H1626" t="n">
-        <v>2341.4024</v>
+        <v>4304.3809</v>
       </c>
       <c r="I1626" t="n">
-        <v>68.2937344649237</v>
+        <v>68.8857294363752</v>
       </c>
     </row>
     <row r="1627">
@@ -54621,14 +54621,14 @@
       </c>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1645" t="n">
-        <v>13836.61831</v>
+        <v>6450.46176</v>
       </c>
       <c r="I1645" t="n">
-        <v>73.2921573923785</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="1646">
@@ -56038,14 +56038,14 @@
       </c>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>重庆三峡银行</t>
         </is>
       </c>
       <c r="H1688" t="n">
-        <v>4627.1001912686</v>
+        <v>2403.6550315359</v>
       </c>
       <c r="I1688" t="n">
-        <v>68.503554899091</v>
+        <v>68.64419483468809</v>
       </c>
     </row>
     <row r="1689">
@@ -56290,14 +56290,14 @@
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H1696" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I1696" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="1697">
@@ -56620,14 +56620,14 @@
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1706" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I1706" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="1707">
@@ -56950,14 +56950,14 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H1716" t="n">
-        <v>7683.46337</v>
+        <v>6086.86846</v>
       </c>
       <c r="I1716" t="n">
-        <v>72.0373772811826</v>
+        <v>71.2247535597206</v>
       </c>
     </row>
     <row r="1717">
@@ -56983,14 +56983,14 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1717" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I1717" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="1718">
@@ -57247,14 +57247,14 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H1725" t="n">
-        <v>5933.61093</v>
+        <v>4883.3472938066</v>
       </c>
       <c r="I1725" t="n">
-        <v>70.0774777244287</v>
+        <v>69.7133394312531</v>
       </c>
     </row>
     <row r="1726">
@@ -57445,14 +57445,14 @@
       </c>
       <c r="G1731" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H1731" t="n">
-        <v>7683.46337</v>
+        <v>6086.86846</v>
       </c>
       <c r="I1731" t="n">
-        <v>72.0373772811826</v>
+        <v>71.2247535597206</v>
       </c>
     </row>
     <row r="1732">
@@ -57575,14 +57575,14 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>广西北部湾银行</t>
+          <t>齐鲁银行</t>
         </is>
       </c>
       <c r="H1735" t="n">
-        <v>3605.31843</v>
+        <v>4334.13706</v>
       </c>
       <c r="I1735" t="n">
-        <v>68.2622608445806</v>
+        <v>68.12474014501031</v>
       </c>
     </row>
     <row r="1736">
@@ -57608,14 +57608,14 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>广西北部湾银行</t>
+          <t>齐鲁银行</t>
         </is>
       </c>
       <c r="H1736" t="n">
-        <v>3605.31843</v>
+        <v>4334.13706</v>
       </c>
       <c r="I1736" t="n">
-        <v>68.2622608445806</v>
+        <v>68.12474014501031</v>
       </c>
     </row>
     <row r="1737">
@@ -57639,14 +57639,14 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>广西北部湾银行</t>
+          <t>齐鲁银行</t>
         </is>
       </c>
       <c r="H1737" t="n">
-        <v>3605.31843</v>
+        <v>4334.13706</v>
       </c>
       <c r="I1737" t="n">
-        <v>68.2622608445806</v>
+        <v>68.12474014501031</v>
       </c>
     </row>
     <row r="1738">
@@ -57705,14 +57705,14 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>广东顺德农村商业银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H1739" t="n">
-        <v>4057.2436572886</v>
+        <v>4627.1001912686</v>
       </c>
       <c r="I1739" t="n">
-        <v>69.1355502313972</v>
+        <v>68.503554899091</v>
       </c>
     </row>
     <row r="1740">
@@ -57771,14 +57771,14 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>苏州银行</t>
         </is>
       </c>
       <c r="H1741" t="n">
-        <v>3511.20068</v>
+        <v>4530.29020092</v>
       </c>
       <c r="I1741" t="n">
-        <v>69.0609645775871</v>
+        <v>69.2813048455872</v>
       </c>
     </row>
     <row r="1742">
@@ -58728,14 +58728,14 @@
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1770" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I1770" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="1771">
@@ -58761,14 +58761,14 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H1771" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I1771" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="1772">
@@ -58794,14 +58794,14 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>秦皇岛银行</t>
+          <t>绍兴银行</t>
         </is>
       </c>
       <c r="H1772" t="n">
-        <v>1351.9502288687</v>
+        <v>1848.016</v>
       </c>
       <c r="I1772" t="n">
-        <v>65.7776126435696</v>
+        <v>65.6203755847682</v>
       </c>
     </row>
     <row r="1773">
@@ -58926,14 +58926,14 @@
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1776" t="n">
-        <v>13836.61831</v>
+        <v>6450.46176</v>
       </c>
       <c r="I1776" t="n">
-        <v>73.2921573923785</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="1777">
@@ -59058,14 +59058,14 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H1780" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I1780" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="1781">
@@ -59223,14 +59223,14 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>中原银行</t>
         </is>
       </c>
       <c r="H1785" t="n">
-        <v>6181.71267</v>
+        <v>7677.64951</v>
       </c>
       <c r="I1785" t="n">
-        <v>72.0740741704179</v>
+        <v>71.2011733664349</v>
       </c>
     </row>
     <row r="1786">
@@ -59256,14 +59256,14 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H1786" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I1786" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="1787">
@@ -59355,14 +59355,14 @@
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H1789" t="n">
-        <v>7683.46337</v>
+        <v>7200.9652558686</v>
       </c>
       <c r="I1789" t="n">
-        <v>72.0373772811826</v>
+        <v>71.1656836998804</v>
       </c>
     </row>
     <row r="1790">
@@ -59619,14 +59619,14 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>中原银行</t>
         </is>
       </c>
       <c r="H1797" t="n">
-        <v>6181.71267</v>
+        <v>7677.64951</v>
       </c>
       <c r="I1797" t="n">
-        <v>72.0740741704179</v>
+        <v>71.2011733664349</v>
       </c>
     </row>
     <row r="1798">
@@ -59652,14 +59652,14 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H1798" t="n">
-        <v>7683.46337</v>
+        <v>7200.9652558686</v>
       </c>
       <c r="I1798" t="n">
-        <v>72.0373772811826</v>
+        <v>71.1656836998804</v>
       </c>
     </row>
     <row r="1799">
@@ -59718,14 +59718,14 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H1800" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I1800" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="1801">
@@ -59751,14 +59751,14 @@
       </c>
       <c r="G1801" t="inlineStr">
         <is>
-          <t>浙江稠州商业银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H1801" t="n">
-        <v>2960.457667428</v>
+        <v>3605.31843</v>
       </c>
       <c r="I1801" t="n">
-        <v>68.9868659130331</v>
+        <v>68.2622608445806</v>
       </c>
     </row>
     <row r="1802">
@@ -59784,14 +59784,14 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>上海农村商业银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H1802" t="n">
-        <v>11583.76261</v>
+        <v>7200.9652558686</v>
       </c>
       <c r="I1802" t="n">
-        <v>71.2862426900504</v>
+        <v>71.1656836998804</v>
       </c>
     </row>
     <row r="1803">
@@ -59883,14 +59883,14 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>上海农村商业银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H1805" t="n">
-        <v>11583.76261</v>
+        <v>7200.9652558686</v>
       </c>
       <c r="I1805" t="n">
-        <v>71.2862426900504</v>
+        <v>71.1656836998804</v>
       </c>
     </row>
     <row r="1806">
@@ -60312,14 +60312,14 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H1818" t="n">
-        <v>11616.28626</v>
+        <v>6086.86846</v>
       </c>
       <c r="I1818" t="n">
-        <v>71.12456881390059</v>
+        <v>71.2247535597206</v>
       </c>
     </row>
     <row r="1819">
@@ -60378,14 +60378,14 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1820" t="n">
-        <v>30589.59</v>
+        <v>15827.07598</v>
       </c>
       <c r="I1820" t="n">
-        <v>80.55497907217109</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="1821">
@@ -60741,14 +60741,14 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1831" t="n">
-        <v>30589.59</v>
+        <v>15827.07598</v>
       </c>
       <c r="I1831" t="n">
-        <v>80.55497907217109</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="1832">
@@ -60774,14 +60774,14 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>佛山农村商业银行</t>
+          <t>保定银行</t>
         </is>
       </c>
       <c r="H1832" t="n">
-        <v>1679.5723448193</v>
+        <v>1182.259367509</v>
       </c>
       <c r="I1832" t="n">
-        <v>64.83412422766411</v>
+        <v>64.987545986021</v>
       </c>
     </row>
     <row r="1833">
@@ -60906,14 +60906,14 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>江苏紫金农村商业银行</t>
+          <t>潍坊银行</t>
         </is>
       </c>
       <c r="H1836" t="n">
-        <v>2066.6603</v>
+        <v>2042.87994</v>
       </c>
       <c r="I1836" t="n">
-        <v>67.94826669297839</v>
+        <v>67.80747332936851</v>
       </c>
     </row>
     <row r="1837">
@@ -61038,14 +61038,14 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>秦皇岛银行</t>
+          <t>绍兴银行</t>
         </is>
       </c>
       <c r="H1840" t="n">
-        <v>1351.9502288687</v>
+        <v>1848.016</v>
       </c>
       <c r="I1840" t="n">
-        <v>65.7776126435696</v>
+        <v>65.6203755847682</v>
       </c>
     </row>
     <row r="1841">
@@ -61597,14 +61597,14 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1857" t="n">
-        <v>4615.02983</v>
+        <v>3458.63917</v>
       </c>
       <c r="I1857" t="n">
-        <v>69.23028736012439</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="1858">
@@ -62224,14 +62224,14 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>威海银行</t>
         </is>
       </c>
       <c r="H1876" t="n">
-        <v>4003.4057092893</v>
+        <v>3045.2081525351</v>
       </c>
       <c r="I1876" t="n">
-        <v>68.44619561046569</v>
+        <v>69.19205752169709</v>
       </c>
     </row>
     <row r="1877">
@@ -62290,14 +62290,14 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>上海农村商业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1878" t="n">
-        <v>11583.76261</v>
+        <v>7961.50318</v>
       </c>
       <c r="I1878" t="n">
-        <v>71.2862426900504</v>
+        <v>71.0540377857304</v>
       </c>
     </row>
     <row r="1879">
@@ -62356,14 +62356,14 @@
       </c>
       <c r="G1880" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>中原银行</t>
         </is>
       </c>
       <c r="H1880" t="n">
-        <v>7199.03932</v>
+        <v>7677.64951</v>
       </c>
       <c r="I1880" t="n">
-        <v>71.8509793020107</v>
+        <v>71.2011733664349</v>
       </c>
     </row>
     <row r="1881">
@@ -62389,14 +62389,14 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>中山农村商业银行</t>
+          <t>长城华西银行</t>
         </is>
       </c>
       <c r="H1881" t="n">
-        <v>1698.2460492303</v>
+        <v>1243.9162112291</v>
       </c>
       <c r="I1881" t="n">
-        <v>64.5266139521615</v>
+        <v>64.89998409303939</v>
       </c>
     </row>
     <row r="1882">
@@ -62521,14 +62521,14 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>厦门国际银行</t>
+          <t>浙江泰隆商业银行</t>
         </is>
       </c>
       <c r="H1885" t="n">
-        <v>10071.68916095</v>
+        <v>3125.5326306366</v>
       </c>
       <c r="I1885" t="n">
-        <v>71.6384103799876</v>
+        <v>70.397581867795</v>
       </c>
     </row>
     <row r="1886">
@@ -62719,14 +62719,14 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H1891" t="n">
-        <v>7683.46337</v>
+        <v>11616.28626</v>
       </c>
       <c r="I1891" t="n">
-        <v>72.0373772811826</v>
+        <v>71.12456881390059</v>
       </c>
     </row>
     <row r="1892">
@@ -62818,14 +62818,14 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H1894" t="n">
-        <v>7683.46337</v>
+        <v>11616.28626</v>
       </c>
       <c r="I1894" t="n">
-        <v>72.0373772811826</v>
+        <v>71.12456881390059</v>
       </c>
     </row>
     <row r="1895">
@@ -62917,14 +62917,14 @@
       </c>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1897" t="n">
-        <v>13836.61831</v>
+        <v>6450.46176</v>
       </c>
       <c r="I1897" t="n">
-        <v>73.2921573923785</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="1898">
@@ -63860,14 +63860,14 @@
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>赣州银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H1926" t="n">
-        <v>2445.9463400456</v>
+        <v>2488.57261</v>
       </c>
       <c r="I1926" t="n">
-        <v>69.47787648355229</v>
+        <v>68.7876000401959</v>
       </c>
     </row>
     <row r="1927">
@@ -65477,14 +65477,14 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H1975" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I1975" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="1976">
@@ -65642,14 +65642,14 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1980" t="n">
-        <v>13836.61831</v>
+        <v>6450.46176</v>
       </c>
       <c r="I1980" t="n">
-        <v>73.2921573923785</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="1981">
@@ -65840,14 +65840,14 @@
       </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1986" t="n">
-        <v>13836.61831</v>
+        <v>6450.46176</v>
       </c>
       <c r="I1986" t="n">
-        <v>73.2921573923785</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="1987">
@@ -65939,14 +65939,14 @@
       </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1989" t="n">
-        <v>26188.7426</v>
+        <v>15827.07598</v>
       </c>
       <c r="I1989" t="n">
-        <v>78.0609651928749</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="1990">
@@ -66071,14 +66071,14 @@
       </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1993" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I1993" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="1994">
@@ -66236,14 +66236,14 @@
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1998" t="n">
-        <v>26188.7426</v>
+        <v>15827.07598</v>
       </c>
       <c r="I1998" t="n">
-        <v>78.0609651928749</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="1999">
@@ -66269,14 +66269,14 @@
       </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1999" t="n">
-        <v>13836.61831</v>
+        <v>6450.46176</v>
       </c>
       <c r="I1999" t="n">
-        <v>73.2921573923785</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="2000">
@@ -66368,14 +66368,14 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>长沙银行</t>
+          <t>重庆农村商业银行</t>
         </is>
       </c>
       <c r="H2002" t="n">
-        <v>7961.50318</v>
+        <v>12658.5107</v>
       </c>
       <c r="I2002" t="n">
-        <v>71.0540377857304</v>
+        <v>71.6867243653551</v>
       </c>
     </row>
     <row r="2003">
@@ -66467,14 +66467,14 @@
       </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2005" t="n">
-        <v>26188.7426</v>
+        <v>15827.07598</v>
       </c>
       <c r="I2005" t="n">
-        <v>78.0609651928749</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="2006">
@@ -66764,14 +66764,14 @@
       </c>
       <c r="G2014" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2014" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I2014" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="2015">
@@ -66929,14 +66929,14 @@
       </c>
       <c r="G2019" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2019" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I2019" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="2020">
@@ -66962,14 +66962,14 @@
       </c>
       <c r="G2020" t="inlineStr">
         <is>
-          <t>秦皇岛银行</t>
+          <t>绍兴银行</t>
         </is>
       </c>
       <c r="H2020" t="n">
-        <v>1351.9502288687</v>
+        <v>1848.016</v>
       </c>
       <c r="I2020" t="n">
-        <v>65.7776126435696</v>
+        <v>65.6203755847682</v>
       </c>
     </row>
     <row r="2021">
@@ -66995,14 +66995,14 @@
       </c>
       <c r="G2021" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H2021" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I2021" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="2022">
@@ -67127,14 +67127,14 @@
       </c>
       <c r="G2025" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2025" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I2025" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="2026">
@@ -67820,14 +67820,14 @@
       </c>
       <c r="G2046" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H2046" t="n">
-        <v>3458.63917</v>
+        <v>5085.59808</v>
       </c>
       <c r="I2046" t="n">
-        <v>68.5394215327612</v>
+        <v>69.7366709204194</v>
       </c>
     </row>
     <row r="2047">
@@ -67853,14 +67853,14 @@
       </c>
       <c r="G2047" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H2047" t="n">
-        <v>13836.61831</v>
+        <v>6450.46176</v>
       </c>
       <c r="I2047" t="n">
-        <v>73.2921573923785</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="2048">
@@ -67886,14 +67886,14 @@
       </c>
       <c r="G2048" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2048" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I2048" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="2049">
@@ -67919,14 +67919,14 @@
       </c>
       <c r="G2049" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2049" t="n">
-        <v>26531.98679</v>
+        <v>17489.46747</v>
       </c>
       <c r="I2049" t="n">
-        <v>77.77216176610339</v>
+        <v>74.50390283100791</v>
       </c>
     </row>
     <row r="2050">
@@ -67985,14 +67985,14 @@
       </c>
       <c r="G2051" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2051" t="n">
-        <v>12658.5107</v>
+        <v>10061.26253</v>
       </c>
       <c r="I2051" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6661913242759</v>
       </c>
     </row>
     <row r="2052">
@@ -68051,14 +68051,14 @@
       </c>
       <c r="G2053" t="inlineStr">
         <is>
-          <t>富滇银行</t>
+          <t>湖北银行</t>
         </is>
       </c>
       <c r="H2053" t="n">
-        <v>3220.14766</v>
+        <v>3511.20068</v>
       </c>
       <c r="I2053" t="n">
-        <v>69.741023839843</v>
+        <v>69.0609645775871</v>
       </c>
     </row>
     <row r="2054">
@@ -68117,14 +68117,14 @@
       </c>
       <c r="G2055" t="inlineStr">
         <is>
-          <t>青岛农村商业银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H2055" t="n">
-        <v>4304.3809</v>
+        <v>3585.04602</v>
       </c>
       <c r="I2055" t="n">
-        <v>68.8857294363752</v>
+        <v>68.109161932397</v>
       </c>
     </row>
     <row r="2056">
@@ -68348,14 +68348,14 @@
       </c>
       <c r="G2062" t="inlineStr">
         <is>
-          <t>盛京银行</t>
+          <t>浙江泰隆商业银行</t>
         </is>
       </c>
       <c r="H2062" t="n">
-        <v>10061.26253</v>
+        <v>3125.5326306366</v>
       </c>
       <c r="I2062" t="n">
-        <v>71.6661913242759</v>
+        <v>70.397581867795</v>
       </c>
     </row>
     <row r="2063">
@@ -69008,14 +69008,14 @@
       </c>
       <c r="G2082" t="inlineStr">
         <is>
-          <t>杭州银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2082" t="n">
-        <v>13905.6453</v>
+        <v>20156.07</v>
       </c>
       <c r="I2082" t="n">
-        <v>72.6217243572487</v>
+        <v>75.52412927544729</v>
       </c>
     </row>
     <row r="2083">
@@ -69272,14 +69272,14 @@
       </c>
       <c r="G2090" t="inlineStr">
         <is>
-          <t>杭州银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2090" t="n">
-        <v>13905.6453</v>
+        <v>20156.07</v>
       </c>
       <c r="I2090" t="n">
-        <v>72.6217243572487</v>
+        <v>75.52412927544729</v>
       </c>
     </row>
     <row r="2091">
@@ -69470,14 +69470,14 @@
       </c>
       <c r="G2096" t="inlineStr">
         <is>
-          <t>杭州银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2096" t="n">
-        <v>13905.6453</v>
+        <v>20156.07</v>
       </c>
       <c r="I2096" t="n">
-        <v>72.6217243572487</v>
+        <v>75.52412927544729</v>
       </c>
     </row>
     <row r="2097">
@@ -69668,14 +69668,14 @@
       </c>
       <c r="G2102" t="inlineStr">
         <is>
-          <t>佛山农村商业银行</t>
+          <t>保定银行</t>
         </is>
       </c>
       <c r="H2102" t="n">
-        <v>1679.5723448193</v>
+        <v>1182.259367509</v>
       </c>
       <c r="I2102" t="n">
-        <v>64.83412422766411</v>
+        <v>64.987545986021</v>
       </c>
     </row>
     <row r="2103">
@@ -69767,14 +69767,14 @@
       </c>
       <c r="G2105" t="inlineStr">
         <is>
-          <t>杭州银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2105" t="n">
-        <v>13905.6453</v>
+        <v>20156.07</v>
       </c>
       <c r="I2105" t="n">
-        <v>72.6217243572487</v>
+        <v>75.52412927544729</v>
       </c>
     </row>
     <row r="2106">
@@ -69899,14 +69899,14 @@
       </c>
       <c r="G2109" t="inlineStr">
         <is>
-          <t>杭州银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2109" t="n">
-        <v>13905.6453</v>
+        <v>20156.07</v>
       </c>
       <c r="I2109" t="n">
-        <v>72.6217243572487</v>
+        <v>75.52412927544729</v>
       </c>
     </row>
     <row r="2110">
@@ -69998,14 +69998,14 @@
       </c>
       <c r="G2112" t="inlineStr">
         <is>
-          <t>杭州银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2112" t="n">
-        <v>13905.6453</v>
+        <v>20156.07</v>
       </c>
       <c r="I2112" t="n">
-        <v>72.6217243572487</v>
+        <v>75.52412927544729</v>
       </c>
     </row>
     <row r="2113">
@@ -70328,14 +70328,14 @@
       </c>
       <c r="G2122" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H2122" t="n">
-        <v>13836.61831</v>
+        <v>6450.46176</v>
       </c>
       <c r="I2122" t="n">
-        <v>73.2921573923785</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="2123">
@@ -71040,14 +71040,14 @@
       </c>
       <c r="G2144" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H2144" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I2144" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="2145">
@@ -71535,14 +71535,14 @@
       </c>
       <c r="G2159" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H2159" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I2159" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="2160">
@@ -71766,14 +71766,14 @@
       </c>
       <c r="G2166" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H2166" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I2166" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="2167">
@@ -71964,14 +71964,14 @@
       </c>
       <c r="G2172" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H2172" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I2172" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="2173">
@@ -74109,14 +74109,14 @@
       </c>
       <c r="G2237" t="inlineStr">
         <is>
-          <t>长安银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H2237" t="n">
-        <v>3781.8064458834</v>
+        <v>3458.63917</v>
       </c>
       <c r="I2237" t="n">
-        <v>69.25951860287719</v>
+        <v>68.5394215327612</v>
       </c>
     </row>
     <row r="2238">
@@ -74736,14 +74736,14 @@
       </c>
       <c r="G2256" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H2256" t="n">
-        <v>4557.00358</v>
+        <v>3552.3445804938</v>
       </c>
       <c r="I2256" t="n">
-        <v>69.3438143756799</v>
+        <v>69.2957748269591</v>
       </c>
     </row>
     <row r="2257">
@@ -74901,14 +74901,14 @@
       </c>
       <c r="G2261" t="inlineStr">
         <is>
-          <t>厦门国际银行</t>
+          <t>锦州银行</t>
         </is>
       </c>
       <c r="H2261" t="n">
-        <v>10071.68916095</v>
+        <v>8496.62002</v>
       </c>
       <c r="I2261" t="n">
-        <v>71.6384103799876</v>
+        <v>71.6768891606896</v>
       </c>
     </row>
     <row r="2262">
@@ -74934,14 +74934,14 @@
       </c>
       <c r="G2262" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H2262" t="n">
-        <v>7683.46337</v>
+        <v>11616.28626</v>
       </c>
       <c r="I2262" t="n">
-        <v>72.0373772811826</v>
+        <v>71.12456881390059</v>
       </c>
     </row>
     <row r="2263">
@@ -74967,14 +74967,14 @@
       </c>
       <c r="G2263" t="inlineStr">
         <is>
-          <t>赣州银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H2263" t="n">
-        <v>2445.9463400456</v>
+        <v>2488.57261</v>
       </c>
       <c r="I2263" t="n">
-        <v>69.47787648355229</v>
+        <v>68.7876000401959</v>
       </c>
     </row>
     <row r="2264">
@@ -75099,14 +75099,14 @@
       </c>
       <c r="G2267" t="inlineStr">
         <is>
-          <t>上饶银行</t>
+          <t>江苏江阴农村商业银行</t>
         </is>
       </c>
       <c r="H2267" t="n">
-        <v>1921.0378675118</v>
+        <v>1531.27599</v>
       </c>
       <c r="I2267" t="n">
-        <v>66.60914390990401</v>
+        <v>65.16144890173631</v>
       </c>
     </row>
     <row r="2268">
@@ -75165,14 +75165,14 @@
       </c>
       <c r="G2269" t="inlineStr">
         <is>
-          <t>江苏江阴农村商业银行</t>
+          <t>江苏海安农商银行</t>
         </is>
       </c>
       <c r="H2269" t="n">
-        <v>1531.27599</v>
+        <v>766.5178649845</v>
       </c>
       <c r="I2269" t="n">
-        <v>65.16144890173631</v>
+        <v>65.0247591935359</v>
       </c>
     </row>
     <row r="2270">
@@ -75231,14 +75231,14 @@
       </c>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>上饶银行</t>
+          <t>江苏江阴农村商业银行</t>
         </is>
       </c>
       <c r="H2271" t="n">
-        <v>1921.0378675118</v>
+        <v>1531.27599</v>
       </c>
       <c r="I2271" t="n">
-        <v>66.60914390990401</v>
+        <v>65.16144890173631</v>
       </c>
     </row>
     <row r="2272">
@@ -76353,14 +76353,14 @@
       </c>
       <c r="G2305" t="inlineStr">
         <is>
-          <t>赣州银行</t>
+          <t>汉口银行</t>
         </is>
       </c>
       <c r="H2305" t="n">
-        <v>2445.9463400456</v>
+        <v>4687.55934</v>
       </c>
       <c r="I2305" t="n">
-        <v>69.47787648355229</v>
+        <v>68.6475772629005</v>
       </c>
     </row>
     <row r="2306">
@@ -76848,14 +76848,14 @@
       </c>
       <c r="G2320" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2320" t="n">
-        <v>26531.98679</v>
+        <v>15827.07598</v>
       </c>
       <c r="I2320" t="n">
-        <v>77.77216176610339</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="2321">
@@ -76914,14 +76914,14 @@
       </c>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H2322" t="n">
-        <v>7677.64951</v>
+        <v>6189.5362</v>
       </c>
       <c r="I2322" t="n">
-        <v>71.2011733664349</v>
+        <v>71.8853665893421</v>
       </c>
     </row>
     <row r="2323">
@@ -76947,14 +76947,14 @@
       </c>
       <c r="G2323" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>贵州银行</t>
         </is>
       </c>
       <c r="H2323" t="n">
-        <v>4530.29020092</v>
+        <v>5038.80166</v>
       </c>
       <c r="I2323" t="n">
-        <v>69.2813048455872</v>
+        <v>69.3658151270344</v>
       </c>
     </row>
     <row r="2324">
@@ -77013,14 +77013,14 @@
       </c>
       <c r="G2325" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H2325" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I2325" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="2326">
@@ -77079,14 +77079,14 @@
       </c>
       <c r="G2327" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H2327" t="n">
-        <v>11616.28626</v>
+        <v>6086.86846</v>
       </c>
       <c r="I2327" t="n">
-        <v>71.12456881390059</v>
+        <v>71.2247535597206</v>
       </c>
     </row>
     <row r="2328">
@@ -77112,14 +77112,14 @@
       </c>
       <c r="G2328" t="inlineStr">
         <is>
-          <t>重庆银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H2328" t="n">
-        <v>6189.5362</v>
+        <v>6450.46176</v>
       </c>
       <c r="I2328" t="n">
-        <v>71.8853665893421</v>
+        <v>72.2485142132951</v>
       </c>
     </row>
     <row r="2329">
@@ -77343,14 +77343,14 @@
       </c>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H2335" t="n">
-        <v>3468.69262</v>
+        <v>3744.2440216194</v>
       </c>
       <c r="I2335" t="n">
-        <v>69.7309034797774</v>
+        <v>68.5621911950667</v>
       </c>
     </row>
     <row r="2336">
@@ -77376,14 +77376,14 @@
       </c>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2336" t="n">
-        <v>26531.98679</v>
+        <v>15827.07598</v>
       </c>
       <c r="I2336" t="n">
-        <v>77.77216176610339</v>
+        <v>74.4301910707683</v>
       </c>
     </row>
     <row r="2337">
@@ -77937,14 +77937,14 @@
       </c>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H2353" t="n">
-        <v>12658.5107</v>
+        <v>10071.68916095</v>
       </c>
       <c r="I2353" t="n">
-        <v>71.6867243653551</v>
+        <v>71.6384103799876</v>
       </c>
     </row>
     <row r="2354">
